--- a/lab2/dependencies/График.xlsx
+++ b/lab2/dependencies/График.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Alghorithms\lab2\dependeties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Alghorithms\lab2\dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E930A54D-4055-49CD-98E8-9FFB6747DAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9469BC-BF19-4340-B559-98093C312C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="4935" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5595" yWindow="4995" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>100x100</t>
   </si>
@@ -43,6 +52,15 @@
   </si>
   <si>
     <t>4000x4000</t>
+  </si>
+  <si>
+    <t>Вывод: Теоритический график оказался быстрее, чем практический</t>
+  </si>
+  <si>
+    <t>Практические значения:</t>
+  </si>
+  <si>
+    <t>Теоритические значения:</t>
   </si>
 </sst>
 </file>
@@ -132,11 +150,28 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>График</a:t>
+              <a:t>Время</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> c</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.8687445319335083E-2"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -145,26 +180,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -173,8 +188,114 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100x100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200x200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400x400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000x2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000x4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2639999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.225999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>444.45299999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-548F-4206-A3BB-46342C7DA11A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-548F-4206-A3BB-46342C7DA11A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -189,7 +310,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$1:$F$1</c:f>
+              <c:f>Лист1!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -215,7 +336,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$2:$F$2</c:f>
+              <c:f>Лист1!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -243,7 +364,56 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7DC4-493A-A481-64C58A0B9701}"/>
+              <c16:uniqueId val="{00000003-548F-4206-A3BB-46342C7DA11A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-548F-4206-A3BB-46342C7DA11A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -366,40 +536,12 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -418,573 +560,17 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1278,52 +864,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.16900000000000001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3.2639999999999998</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>46.225999999999999</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>444.45299999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <f>100^3/B5</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3">
+        <f>200^3/B5</f>
+        <v>0.04</v>
+      </c>
+      <c r="D3">
+        <f>400^3/B5</f>
+        <v>0.32</v>
+      </c>
+      <c r="E3">
+        <f>1000^3/B5</f>
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <f>2000^3/B5</f>
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <f>4000^3/B5</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
